--- a/list_clients _RABAH.xlsx
+++ b/list_clients _RABAH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fouad.benayad\Desktop\dev\python_xls_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1307C2-9265-41D0-97CA-7BABE4C0922E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315BF5C-8D82-4D47-979D-50B25FD16214}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +375,27 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,13 +714,14 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="3" width="30.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
@@ -709,7 +731,7 @@
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -723,10 +745,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>601</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="19">
+        <v>602</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
@@ -736,10 +758,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>601</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="19">
+        <v>602</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
@@ -749,10 +771,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>601</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="19">
+        <v>602</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
@@ -762,10 +784,10 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>601</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="19">
+        <v>602</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
@@ -775,10 +797,10 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>601</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="19">
+        <v>602</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
@@ -788,10 +810,10 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>601</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="19">
+        <v>602</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5"/>
@@ -801,10 +823,10 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>601</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="19">
+        <v>602</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="5"/>
@@ -814,10 +836,10 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>601</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="19">
+        <v>602</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="5"/>
@@ -827,10 +849,10 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>601</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="19">
+        <v>602</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5"/>
@@ -840,10 +862,10 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>601</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="19">
+        <v>602</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5"/>
@@ -853,10 +875,10 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>601</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="19">
+        <v>602</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5"/>
@@ -866,10 +888,10 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>601</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="19">
+        <v>602</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="5"/>
@@ -879,10 +901,10 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>601</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="19">
+        <v>602</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5"/>
@@ -892,10 +914,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>601</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="19">
+        <v>602</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="5"/>
@@ -905,10 +927,10 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>601</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="19">
+        <v>602</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5"/>
@@ -918,10 +940,10 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>601</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="19">
+        <v>602</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5"/>
@@ -931,10 +953,10 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>601</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="19">
+        <v>602</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="5"/>
@@ -944,10 +966,10 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>601</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="19">
+        <v>602</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5"/>
@@ -957,10 +979,10 @@
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>601</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="19">
+        <v>602</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="9"/>
@@ -970,10 +992,10 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>601</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="19">
+        <v>602</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5"/>
@@ -983,10 +1005,10 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>601</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="19">
+        <v>602</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="5"/>
@@ -996,10 +1018,10 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>601</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="19">
+        <v>602</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="5"/>
@@ -1009,10 +1031,10 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>601</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="19">
+        <v>602</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="5"/>
@@ -1022,10 +1044,10 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>601</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="19">
+        <v>602</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="5"/>
@@ -1035,10 +1057,10 @@
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>601</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="19">
+        <v>602</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="5"/>
@@ -1048,10 +1070,10 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>601</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="19">
+        <v>602</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="5"/>
@@ -1061,10 +1083,10 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>601</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="19">
+        <v>602</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="5"/>
@@ -1074,10 +1096,10 @@
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>601</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="19">
+        <v>602</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="5"/>
@@ -1087,10 +1109,10 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>601</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="19">
+        <v>602</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="5"/>
@@ -1100,10 +1122,10 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>601</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="19">
+        <v>602</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5"/>
@@ -1113,10 +1135,10 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>601</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="19">
+        <v>602</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="5"/>
@@ -1126,10 +1148,10 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>601</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="19">
+        <v>602</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="5"/>
@@ -1139,10 +1161,10 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>601</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="19">
+        <v>602</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="5"/>
@@ -1152,10 +1174,10 @@
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>601</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="19">
+        <v>602</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="5"/>
@@ -1165,10 +1187,10 @@
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>601</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="19">
+        <v>602</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="9"/>
@@ -1178,10 +1200,10 @@
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>601</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="19">
+        <v>602</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="9"/>
@@ -1191,10 +1213,10 @@
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>601</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="19">
+        <v>602</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="9"/>
@@ -1204,10 +1226,10 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>601</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="19">
+        <v>602</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="11"/>
@@ -1217,10 +1239,10 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>601</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="19">
+        <v>602</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="9"/>
@@ -1230,10 +1252,10 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>601</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="19">
+        <v>602</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="9"/>
@@ -1243,10 +1265,10 @@
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>601</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="19">
+        <v>602</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="9"/>
@@ -1256,10 +1278,10 @@
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>601</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="19">
+        <v>602</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="9"/>
@@ -1269,10 +1291,10 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>601</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="19">
+        <v>602</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="9"/>
@@ -1282,10 +1304,10 @@
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>601</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="19">
+        <v>602</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="9"/>
@@ -1295,10 +1317,10 @@
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>601</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="19">
+        <v>602</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="9"/>
@@ -1308,10 +1330,10 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>601</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="19">
+        <v>602</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="9"/>
@@ -1321,10 +1343,10 @@
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>601</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="19">
+        <v>602</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="9"/>
@@ -1334,10 +1356,10 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>601</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="19">
+        <v>602</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C49" s="9"/>
@@ -1347,10 +1369,10 @@
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>601</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="19">
+        <v>602</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="9"/>
@@ -1360,10 +1382,10 @@
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>601</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="19">
+        <v>602</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="9"/>
@@ -1373,10 +1395,10 @@
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>601</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="19">
+        <v>602</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="9"/>
@@ -1386,10 +1408,10 @@
       <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>601</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="19">
+        <v>602</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="9"/>
@@ -1399,10 +1421,10 @@
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>601</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="19">
+        <v>602</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="9"/>
@@ -1412,10 +1434,10 @@
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>601</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="19">
+        <v>602</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="9"/>
@@ -1425,10 +1447,10 @@
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>601</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="19">
+        <v>602</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="9"/>
@@ -1438,10 +1460,10 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>601</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="19">
+        <v>602</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="9"/>
@@ -1451,10 +1473,10 @@
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>601</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="19">
+        <v>602</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="9"/>
@@ -1464,10 +1486,10 @@
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>601</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="19">
+        <v>602</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="9"/>
@@ -1477,10 +1499,10 @@
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>601</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="19">
+        <v>602</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="9"/>
@@ -1490,10 +1512,10 @@
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>601</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="19">
+        <v>602</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="9"/>
@@ -1503,10 +1525,10 @@
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>601</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="19">
+        <v>602</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="9"/>
@@ -1516,10 +1538,10 @@
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>601</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="19">
+        <v>602</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="9"/>
@@ -1529,10 +1551,10 @@
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>601</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="19">
+        <v>602</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="9"/>
@@ -1542,10 +1564,10 @@
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>601</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="19">
+        <v>602</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="9"/>
@@ -1555,10 +1577,10 @@
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>601</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="19">
+        <v>602</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="9"/>
@@ -1568,10 +1590,10 @@
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>601</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="19">
+        <v>602</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="9"/>
@@ -1581,10 +1603,10 @@
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>601</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="19">
+        <v>602</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C68" s="9"/>
@@ -1594,10 +1616,10 @@
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>601</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="19">
+        <v>602</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C69" s="9"/>
@@ -1607,10 +1629,10 @@
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>601</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="19">
+        <v>602</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="9"/>
@@ -1620,10 +1642,10 @@
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>601</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="19">
+        <v>602</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="9"/>
@@ -1633,10 +1655,10 @@
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>601</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="19">
+        <v>602</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C72" s="9"/>
@@ -1646,10 +1668,10 @@
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>601</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="19">
+        <v>602</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="9"/>
@@ -1659,10 +1681,10 @@
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>601</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="19">
+        <v>602</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C74" s="9"/>
@@ -1672,10 +1694,10 @@
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>601</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="19">
+        <v>602</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C75" s="9"/>
@@ -1685,10 +1707,10 @@
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>601</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="19">
+        <v>602</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C76" s="9"/>
@@ -1698,10 +1720,10 @@
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>601</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="19">
+        <v>602</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C77" s="9"/>
@@ -1711,10 +1733,10 @@
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>601</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="19">
+        <v>602</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="9"/>
@@ -1724,10 +1746,10 @@
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>601</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="19">
+        <v>602</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="9"/>
@@ -1737,10 +1759,10 @@
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>601</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="19">
+        <v>602</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C80" s="5"/>
@@ -1750,10 +1772,10 @@
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>601</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="19">
+        <v>602</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C81" s="5"/>
@@ -1763,10 +1785,10 @@
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>601</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="19">
+        <v>602</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C82" s="5"/>
@@ -1776,10 +1798,10 @@
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>601</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="19">
+        <v>602</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C83" s="5"/>
@@ -1789,10 +1811,10 @@
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>601</v>
-      </c>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="19">
+        <v>602</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="5"/>
@@ -1802,10 +1824,10 @@
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>601</v>
-      </c>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="19">
+        <v>602</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="5"/>
@@ -1815,10 +1837,10 @@
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>601</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="19">
+        <v>602</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C86" s="5"/>
@@ -1828,10 +1850,10 @@
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>601</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="19">
+        <v>602</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="5"/>
@@ -1841,10 +1863,10 @@
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>601</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="19">
+        <v>602</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C88" s="5"/>
@@ -1854,10 +1876,10 @@
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>601</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="19">
+        <v>602</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C89" s="5"/>
@@ -1867,10 +1889,10 @@
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>601</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="19">
+        <v>602</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="5"/>
@@ -1880,10 +1902,10 @@
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>601</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="19">
+        <v>602</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C91" s="5"/>
@@ -1893,10 +1915,10 @@
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>601</v>
-      </c>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="19">
+        <v>602</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="5"/>
@@ -1906,10 +1928,10 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>601</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="19">
+        <v>602</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C93" s="5"/>
@@ -1919,10 +1941,10 @@
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>601</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="19">
+        <v>602</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="5"/>
@@ -1932,10 +1954,10 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>601</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="19">
+        <v>602</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C95" s="5"/>
@@ -1945,10 +1967,10 @@
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>601</v>
-      </c>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="19">
+        <v>602</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C96" s="5"/>
@@ -1958,10 +1980,10 @@
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>601</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="A97" s="19">
+        <v>602</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C97" s="5"/>
@@ -1971,10 +1993,10 @@
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>601</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="19">
+        <v>602</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C98" s="5"/>
@@ -1984,10 +2006,10 @@
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>601</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="19">
+        <v>602</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="5"/>
@@ -1997,10 +2019,10 @@
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>601</v>
-      </c>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="19">
+        <v>602</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C100" s="5"/>
@@ -2010,10 +2032,10 @@
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>601</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="19">
+        <v>602</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="5"/>
@@ -2023,10 +2045,10 @@
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>601</v>
-      </c>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="19">
+        <v>602</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C102" s="5"/>
@@ -2036,10 +2058,10 @@
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>601</v>
-      </c>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="19">
+        <v>602</v>
+      </c>
+      <c r="B103" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C103" s="5"/>
@@ -2049,10 +2071,10 @@
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>601</v>
-      </c>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="19">
+        <v>602</v>
+      </c>
+      <c r="B104" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C104" s="5"/>
@@ -2062,10 +2084,10 @@
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>601</v>
-      </c>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="19">
+        <v>602</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C105" s="5"/>
@@ -2075,10 +2097,10 @@
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>601</v>
-      </c>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="19">
+        <v>602</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C106" s="5"/>
@@ -2088,10 +2110,10 @@
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>601</v>
-      </c>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="19">
+        <v>602</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C107" s="5"/>
@@ -2101,10 +2123,10 @@
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>601</v>
-      </c>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="19">
+        <v>602</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C108" s="5"/>
@@ -2114,10 +2136,10 @@
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>601</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="19">
+        <v>602</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C109" s="5"/>
@@ -2127,10 +2149,10 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>601</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="19">
+        <v>602</v>
+      </c>
+      <c r="B110" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="4"/>
@@ -2140,10 +2162,10 @@
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>601</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="19">
+        <v>602</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C111" s="4"/>
@@ -2153,10 +2175,10 @@
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>601</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="19">
+        <v>602</v>
+      </c>
+      <c r="B112" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C112" s="4"/>
